--- a/Beaconit.xlsx
+++ b/Beaconit.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="34340" yWindow="-3620" windowWidth="27120" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="7140" yWindow="1800" windowWidth="17420" windowHeight="14720" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Livi" sheetId="1" r:id="rId1"/>
@@ -215,7 +215,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="109">
   <si>
     <t>Beaconit</t>
   </si>
@@ -361,9 +361,6 @@
     <t>Sijoittelu</t>
   </si>
   <si>
-    <t>Alikulkutunnelin pää (kulku laiturille 4)</t>
-  </si>
-  <si>
     <t>Kehä I ylikulku, keskimmäinen (kulku laiturille 2/3)</t>
   </si>
   <si>
@@ -466,9 +463,6 @@
     <t>00000010</t>
   </si>
   <si>
-    <t>00101010</t>
-  </si>
-  <si>
     <t>pysäkkibeaconeiden konffaus: uuid `[0xdf, 0xff, 0x7a, 0xda, 0xa4, 0x8a, 0x4f, 0x77, 0xaa, 0x9a, 0x3a, 0x79, 0x43, 0x64, 0x1e, 0x6c]`, major-numero espoon kuntakoodi `49` (kymmenjärjestelmässä), minor-numero pysäkkien lyhytkoodit: `1033, 1024, 1025, 1026, 1027` (kymmenjärjestelmässä)</t>
   </si>
   <si>
@@ -494,6 +488,60 @@
   </si>
   <si>
     <t>https://goo.gl/UQOdUH</t>
+  </si>
+  <si>
+    <t>00000100</t>
+  </si>
+  <si>
+    <t>0000010000101100</t>
+  </si>
+  <si>
+    <t>00101110</t>
+  </si>
+  <si>
+    <t>0000001000101110</t>
+  </si>
+  <si>
+    <t>22E</t>
+  </si>
+  <si>
+    <t>42C</t>
+  </si>
+  <si>
+    <t>00101100</t>
+  </si>
+  <si>
+    <t>00110000</t>
+  </si>
+  <si>
+    <t>0000010000110000</t>
+  </si>
+  <si>
+    <t>430</t>
+  </si>
+  <si>
+    <t>Alikulkutunnelin pää (kulku laiturille 1)</t>
+  </si>
+  <si>
+    <t>00101001</t>
+  </si>
+  <si>
+    <t>00000001</t>
+  </si>
+  <si>
+    <t>0000000100101001</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>00101101</t>
+  </si>
+  <si>
+    <t>0000000100101101</t>
+  </si>
+  <si>
+    <t>12D</t>
   </si>
 </sst>
 </file>
@@ -897,8 +945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H195"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D139" sqref="D139"/>
+    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
+      <selection activeCell="C164" sqref="C164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -941,7 +989,7 @@
         <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>48</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -986,10 +1034,10 @@
         <v>6</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -1027,7 +1075,7 @@
       </c>
       <c r="D16" s="10"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1035,7 +1083,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>31</v>
       </c>
@@ -1043,7 +1091,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>28</v>
       </c>
@@ -1051,7 +1099,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>29</v>
       </c>
@@ -1059,7 +1107,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
         <v>1</v>
       </c>
@@ -1067,7 +1115,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>3</v>
       </c>
@@ -1075,7 +1123,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>4</v>
       </c>
@@ -1086,7 +1134,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>15</v>
       </c>
@@ -1094,7 +1142,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>31</v>
       </c>
@@ -1102,7 +1150,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>28</v>
       </c>
@@ -1110,7 +1158,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>29</v>
       </c>
@@ -1118,7 +1166,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>1</v>
       </c>
@@ -1126,7 +1174,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
         <v>3</v>
       </c>
@@ -1134,15 +1182,24 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>5</v>
+        <v>105</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>24</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -1168,7 +1225,7 @@
         <v>34</v>
       </c>
       <c r="E34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -1213,10 +1270,10 @@
         <v>6</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -1256,10 +1313,10 @@
         <v>6</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -1342,19 +1399,19 @@
         <v>4</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="D57" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.2">
@@ -1442,7 +1499,7 @@
         <v>46</v>
       </c>
       <c r="E68" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -1487,10 +1544,10 @@
         <v>6</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -1530,13 +1587,13 @@
         <v>6</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B81" s="1" t="s">
         <v>16</v>
       </c>
@@ -1545,7 +1602,7 @@
       </c>
       <c r="D81" s="11"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B82" s="1" t="s">
         <v>17</v>
       </c>
@@ -1554,16 +1611,16 @@
       </c>
       <c r="D82" s="11"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D83" s="10"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B84" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D84" s="10"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B85" s="1" t="s">
         <v>12</v>
       </c>
@@ -1571,7 +1628,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B86" s="1" t="s">
         <v>31</v>
       </c>
@@ -1579,7 +1636,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B87" s="1" t="s">
         <v>28</v>
       </c>
@@ -1587,7 +1644,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B88" s="1" t="s">
         <v>29</v>
       </c>
@@ -1595,7 +1652,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B89" s="1" t="s">
         <v>1</v>
       </c>
@@ -1603,7 +1660,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B90" s="1" t="s">
         <v>3</v>
       </c>
@@ -1611,18 +1668,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B91" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="D91" s="8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F91" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B93" s="1" t="s">
         <v>15</v>
       </c>
@@ -1630,7 +1690,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="s">
         <v>38</v>
       </c>
@@ -1645,7 +1705,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B96" s="1" t="s">
         <v>21</v>
       </c>
@@ -1653,7 +1713,7 @@
         <v>39</v>
       </c>
       <c r="E96" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.2">
@@ -1698,10 +1758,10 @@
         <v>6</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.2">
@@ -1771,7 +1831,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B113" s="1" t="s">
         <v>1</v>
       </c>
@@ -1779,7 +1839,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B114" s="1" t="s">
         <v>3</v>
       </c>
@@ -1787,18 +1847,27 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B115" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>5</v>
+        <v>96</v>
       </c>
       <c r="D115" s="8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F115" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B117" s="1" t="s">
         <v>15</v>
       </c>
@@ -1806,7 +1875,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="6" t="s">
         <v>40</v>
       </c>
@@ -1821,7 +1890,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B120" s="1" t="s">
         <v>21</v>
       </c>
@@ -1829,15 +1898,15 @@
         <v>41</v>
       </c>
       <c r="E120" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B122" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B123" s="1" t="s">
         <v>12</v>
       </c>
@@ -1845,7 +1914,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B124" s="1" t="s">
         <v>31</v>
       </c>
@@ -1853,7 +1922,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B125" s="1" t="s">
         <v>28</v>
       </c>
@@ -1861,7 +1930,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B126" s="1" t="s">
         <v>29</v>
       </c>
@@ -1869,18 +1938,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="B127" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B128" s="1" t="s">
         <v>15</v>
       </c>
@@ -1888,7 +1957,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B129" s="1" t="s">
         <v>16</v>
       </c>
@@ -1897,7 +1966,7 @@
       </c>
       <c r="D129" s="11"/>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B130" s="1" t="s">
         <v>17</v>
       </c>
@@ -1906,16 +1975,16 @@
       </c>
       <c r="D130" s="11"/>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D131" s="10"/>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B132" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D132" s="10"/>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B133" s="1" t="s">
         <v>12</v>
       </c>
@@ -1923,7 +1992,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B134" s="1" t="s">
         <v>31</v>
       </c>
@@ -1931,7 +2000,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B135" s="1" t="s">
         <v>28</v>
       </c>
@@ -1939,7 +2008,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B136" s="1" t="s">
         <v>29</v>
       </c>
@@ -1947,7 +2016,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B137" s="1" t="s">
         <v>1</v>
       </c>
@@ -1955,7 +2024,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B138" s="1" t="s">
         <v>3</v>
       </c>
@@ -1963,18 +2032,27 @@
         <v>5</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B139" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="D139" s="8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F139" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B141" s="1" t="s">
         <v>15</v>
       </c>
@@ -1982,7 +2060,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" s="6" t="s">
         <v>42</v>
       </c>
@@ -1997,7 +2075,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B144" s="1" t="s">
         <v>21</v>
       </c>
@@ -2005,7 +2083,7 @@
         <v>43</v>
       </c>
       <c r="E144" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="146" spans="2:4" x14ac:dyDescent="0.2">
@@ -2110,7 +2188,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B161" s="1" t="s">
         <v>1</v>
       </c>
@@ -2118,7 +2196,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B162" s="1" t="s">
         <v>3</v>
       </c>
@@ -2126,18 +2204,27 @@
         <v>5</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B163" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>5</v>
+        <v>108</v>
       </c>
       <c r="D163" s="8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F163" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G163" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H163" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B165" s="1" t="s">
         <v>15</v>
       </c>
@@ -2145,7 +2232,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" s="6" t="s">
         <v>44</v>
       </c>
@@ -2160,7 +2247,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B168" s="1" t="s">
         <v>21</v>
       </c>
@@ -2169,15 +2256,15 @@
       </c>
       <c r="D168" s="12"/>
       <c r="E168" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B170" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B171" s="1" t="s">
         <v>12</v>
       </c>
@@ -2185,7 +2272,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B172" s="1" t="s">
         <v>31</v>
       </c>
@@ -2193,7 +2280,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B173" s="1" t="s">
         <v>28</v>
       </c>
@@ -2201,7 +2288,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B174" s="1" t="s">
         <v>29</v>
       </c>
@@ -2209,7 +2296,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="B175" s="1" t="s">
         <v>6</v>
       </c>
@@ -2220,7 +2307,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B176" s="1" t="s">
         <v>15</v>
       </c>
@@ -2374,7 +2461,7 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A4"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2382,9 +2469,9 @@
     <col min="1" max="1" width="73.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" ht="64" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
@@ -2392,12 +2479,12 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2409,8 +2496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2418,17 +2505,17 @@
     <col min="1" max="1" width="87.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" ht="64" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="8"/>
     </row>
-    <row r="3" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
@@ -2436,7 +2523,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
@@ -2444,22 +2531,22 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
@@ -2467,22 +2554,22 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
@@ -2490,22 +2577,22 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
@@ -2513,22 +2600,22 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
@@ -2536,22 +2623,22 @@
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
@@ -2559,12 +2646,12 @@
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/Beaconit.xlsx
+++ b/Beaconit.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7140" yWindow="1800" windowWidth="17420" windowHeight="14720" tabRatio="500"/>
+    <workbookView xWindow="6060" yWindow="1840" windowWidth="21440" windowHeight="14580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Livi" sheetId="1" r:id="rId1"/>
@@ -215,7 +215,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="107">
   <si>
     <t>Beaconit</t>
   </si>
@@ -454,15 +454,6 @@
     <t>Kari Kähkönen</t>
   </si>
   <si>
-    <t>0000001000101010</t>
-  </si>
-  <si>
-    <t>22A</t>
-  </si>
-  <si>
-    <t>00000010</t>
-  </si>
-  <si>
     <t>pysäkkibeaconeiden konffaus: uuid `[0xdf, 0xff, 0x7a, 0xda, 0xa4, 0x8a, 0x4f, 0x77, 0xaa, 0x9a, 0x3a, 0x79, 0x43, 0x64, 0x1e, 0x6c]`, major-numero espoon kuntakoodi `49` (kymmenjärjestelmässä), minor-numero pysäkkien lyhytkoodit: `1033, 1024, 1025, 1026, 1027` (kymmenjärjestelmässä)</t>
   </si>
   <si>
@@ -490,58 +481,61 @@
     <t>https://goo.gl/UQOdUH</t>
   </si>
   <si>
-    <t>00000100</t>
-  </si>
-  <si>
-    <t>0000010000101100</t>
-  </si>
-  <si>
-    <t>00101110</t>
-  </si>
-  <si>
-    <t>0000001000101110</t>
-  </si>
-  <si>
-    <t>22E</t>
-  </si>
-  <si>
-    <t>42C</t>
-  </si>
-  <si>
-    <t>00101100</t>
-  </si>
-  <si>
-    <t>00110000</t>
-  </si>
-  <si>
-    <t>0000010000110000</t>
-  </si>
-  <si>
-    <t>430</t>
-  </si>
-  <si>
     <t>Alikulkutunnelin pää (kulku laiturille 1)</t>
   </si>
   <si>
-    <t>00101001</t>
-  </si>
-  <si>
-    <t>00000001</t>
-  </si>
-  <si>
-    <t>0000000100101001</t>
-  </si>
-  <si>
-    <t>129</t>
-  </si>
-  <si>
-    <t>00101101</t>
-  </si>
-  <si>
-    <t>0000000100101101</t>
-  </si>
-  <si>
-    <t>12D</t>
+    <t>00001</t>
+  </si>
+  <si>
+    <t>00000</t>
+  </si>
+  <si>
+    <t>101001</t>
+  </si>
+  <si>
+    <t>0000100000101001</t>
+  </si>
+  <si>
+    <t>829</t>
+  </si>
+  <si>
+    <t>00010</t>
+  </si>
+  <si>
+    <t>00100</t>
+  </si>
+  <si>
+    <t>101010</t>
+  </si>
+  <si>
+    <t>000010000101010</t>
+  </si>
+  <si>
+    <t>0000100000110000</t>
+  </si>
+  <si>
+    <t>0010000000101001</t>
+  </si>
+  <si>
+    <t>0001000000101001</t>
+  </si>
+  <si>
+    <t>0001000000101010</t>
+  </si>
+  <si>
+    <t>102A</t>
+  </si>
+  <si>
+    <t>1029</t>
+  </si>
+  <si>
+    <t>2029</t>
+  </si>
+  <si>
+    <t>830</t>
+  </si>
+  <si>
+    <t>42A</t>
   </si>
 </sst>
 </file>
@@ -627,13 +621,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -660,10 +655,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -943,10 +940,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H195"/>
+  <dimension ref="A1:I195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
-      <selection activeCell="C164" sqref="C164"/>
+    <sheetView tabSelected="1" topLeftCell="A159" workbookViewId="0">
+      <selection activeCell="C163" sqref="C163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -955,10 +952,10 @@
     <col min="2" max="2" width="21" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.1640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="28.6640625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="41.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.6640625" customWidth="1"/>
     <col min="6" max="6" width="21.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="9.1640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -989,7 +986,7 @@
         <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -1034,10 +1031,10 @@
         <v>6</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -1075,7 +1072,7 @@
       </c>
       <c r="D16" s="10"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1083,7 +1080,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>31</v>
       </c>
@@ -1091,7 +1088,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>28</v>
       </c>
@@ -1099,7 +1096,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>29</v>
       </c>
@@ -1107,7 +1104,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
         <v>1</v>
       </c>
@@ -1115,7 +1112,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>3</v>
       </c>
@@ -1123,7 +1120,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>4</v>
       </c>
@@ -1134,7 +1131,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>15</v>
       </c>
@@ -1142,7 +1139,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>31</v>
       </c>
@@ -1150,7 +1147,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>28</v>
       </c>
@@ -1158,7 +1155,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>29</v>
       </c>
@@ -1166,7 +1163,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>1</v>
       </c>
@@ -1174,7 +1171,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
         <v>3</v>
       </c>
@@ -1182,24 +1179,27 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>102</v>
+        <v>90</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -1270,10 +1270,10 @@
         <v>6</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -1313,10 +1313,10 @@
         <v>6</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -1337,16 +1337,16 @@
       </c>
       <c r="D48" s="11"/>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D49" s="10"/>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B50" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D50" s="10"/>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
         <v>12</v>
       </c>
@@ -1354,7 +1354,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
         <v>31</v>
       </c>
@@ -1362,7 +1362,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B53" s="1" t="s">
         <v>28</v>
       </c>
@@ -1370,7 +1370,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
         <v>29</v>
       </c>
@@ -1378,7 +1378,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
         <v>1</v>
       </c>
@@ -1386,7 +1386,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
         <v>3</v>
       </c>
@@ -1394,27 +1394,30 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B57" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D57" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F57" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G57" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="G57" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="H57" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B59" s="1" t="s">
         <v>15</v>
       </c>
@@ -1422,7 +1425,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B60" s="1" t="s">
         <v>31</v>
       </c>
@@ -1430,7 +1433,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B61" s="1" t="s">
         <v>28</v>
       </c>
@@ -1438,7 +1441,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B62" s="1" t="s">
         <v>29</v>
       </c>
@@ -1446,7 +1449,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B63" s="1" t="s">
         <v>1</v>
       </c>
@@ -1454,7 +1457,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B64" s="1" t="s">
         <v>3</v>
       </c>
@@ -1544,10 +1547,10 @@
         <v>6</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -1587,13 +1590,13 @@
         <v>6</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B81" s="1" t="s">
         <v>16</v>
       </c>
@@ -1602,7 +1605,7 @@
       </c>
       <c r="D81" s="11"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B82" s="1" t="s">
         <v>17</v>
       </c>
@@ -1611,16 +1614,16 @@
       </c>
       <c r="D82" s="11"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D83" s="10"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B84" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D84" s="10"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B85" s="1" t="s">
         <v>12</v>
       </c>
@@ -1628,7 +1631,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B86" s="1" t="s">
         <v>31</v>
       </c>
@@ -1636,7 +1639,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B87" s="1" t="s">
         <v>28</v>
       </c>
@@ -1644,7 +1647,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B88" s="1" t="s">
         <v>29</v>
       </c>
@@ -1652,7 +1655,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B89" s="1" t="s">
         <v>1</v>
       </c>
@@ -1660,7 +1663,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B90" s="1" t="s">
         <v>3</v>
       </c>
@@ -1668,21 +1671,30 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B91" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="D91" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B93" s="1" t="s">
         <v>15</v>
       </c>
@@ -1690,7 +1702,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="s">
         <v>38</v>
       </c>
@@ -1705,7 +1717,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B96" s="1" t="s">
         <v>21</v>
       </c>
@@ -1758,10 +1770,10 @@
         <v>6</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.2">
@@ -1831,7 +1843,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B113" s="1" t="s">
         <v>1</v>
       </c>
@@ -1839,7 +1851,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B114" s="1" t="s">
         <v>3</v>
       </c>
@@ -1847,27 +1859,30 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B115" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="D115" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="G115" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I115" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="H115" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B117" s="1" t="s">
         <v>15</v>
       </c>
@@ -1875,7 +1890,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" s="6" t="s">
         <v>40</v>
       </c>
@@ -1890,7 +1905,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B120" s="1" t="s">
         <v>21</v>
       </c>
@@ -1901,12 +1916,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B122" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B123" s="1" t="s">
         <v>12</v>
       </c>
@@ -1914,7 +1929,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B124" s="1" t="s">
         <v>31</v>
       </c>
@@ -1922,7 +1937,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B125" s="1" t="s">
         <v>28</v>
       </c>
@@ -1930,7 +1945,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B126" s="1" t="s">
         <v>29</v>
       </c>
@@ -1938,18 +1953,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B127" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B128" s="1" t="s">
         <v>15</v>
       </c>
@@ -1957,7 +1972,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B129" s="1" t="s">
         <v>16</v>
       </c>
@@ -1966,7 +1981,7 @@
       </c>
       <c r="D129" s="11"/>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B130" s="1" t="s">
         <v>17</v>
       </c>
@@ -1975,16 +1990,16 @@
       </c>
       <c r="D130" s="11"/>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D131" s="10"/>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B132" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D132" s="10"/>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B133" s="1" t="s">
         <v>12</v>
       </c>
@@ -1992,7 +2007,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B134" s="1" t="s">
         <v>31</v>
       </c>
@@ -2000,7 +2015,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B135" s="1" t="s">
         <v>28</v>
       </c>
@@ -2008,7 +2023,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B136" s="1" t="s">
         <v>29</v>
       </c>
@@ -2016,7 +2031,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B137" s="1" t="s">
         <v>1</v>
       </c>
@@ -2024,7 +2039,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B138" s="1" t="s">
         <v>3</v>
       </c>
@@ -2032,27 +2047,30 @@
         <v>5</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B139" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D139" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+      <c r="I139" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B141" s="1" t="s">
         <v>15</v>
       </c>
@@ -2060,7 +2078,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" s="6" t="s">
         <v>42</v>
       </c>
@@ -2075,7 +2093,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B144" s="1" t="s">
         <v>21</v>
       </c>
@@ -2188,7 +2206,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B161" s="1" t="s">
         <v>1</v>
       </c>
@@ -2196,7 +2214,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B162" s="1" t="s">
         <v>3</v>
       </c>
@@ -2204,27 +2222,30 @@
         <v>5</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B163" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D163" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+      <c r="I163" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B165" s="1" t="s">
         <v>15</v>
       </c>
@@ -2232,7 +2253,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167" s="6" t="s">
         <v>44</v>
       </c>
@@ -2247,7 +2268,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B168" s="1" t="s">
         <v>21</v>
       </c>
@@ -2259,12 +2280,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B170" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B171" s="1" t="s">
         <v>12</v>
       </c>
@@ -2272,7 +2293,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B172" s="1" t="s">
         <v>31</v>
       </c>
@@ -2280,7 +2301,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B173" s="1" t="s">
         <v>28</v>
       </c>
@@ -2288,7 +2309,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B174" s="1" t="s">
         <v>29</v>
       </c>
@@ -2296,7 +2317,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="175" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B175" s="1" t="s">
         <v>6</v>
       </c>
@@ -2307,7 +2328,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B176" s="1" t="s">
         <v>15</v>
       </c>
@@ -2461,7 +2482,7 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2471,7 +2492,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="64" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
@@ -2479,12 +2500,12 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/Beaconit.xlsx
+++ b/Beaconit.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6060" yWindow="1840" windowWidth="21440" windowHeight="14580" tabRatio="500"/>
+    <workbookView xWindow="8640" yWindow="2060" windowWidth="19960" windowHeight="14580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Livi" sheetId="1" r:id="rId1"/>
@@ -942,8 +942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A159" workbookViewId="0">
-      <selection activeCell="C163" sqref="C163"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C175" sqref="C175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1030,7 +1030,7 @@
       <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" t="s">
         <v>87</v>
       </c>
       <c r="D11" s="10" t="s">
@@ -1125,7 +1125,7 @@
         <v>4</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>5</v>
+        <v>93</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>24</v>
@@ -1269,7 +1269,7 @@
       <c r="B41" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" t="s">
         <v>83</v>
       </c>
       <c r="D41" s="10" t="s">
@@ -1312,7 +1312,7 @@
       <c r="B46" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" t="s">
         <v>85</v>
       </c>
       <c r="D46" s="10" t="s">
@@ -1470,7 +1470,7 @@
         <v>4</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>5</v>
+        <v>102</v>
       </c>
       <c r="D65" s="8" t="s">
         <v>24</v>
@@ -1546,7 +1546,7 @@
       <c r="B75" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C75" t="s">
         <v>83</v>
       </c>
       <c r="D75" s="10" t="s">
@@ -1589,7 +1589,7 @@
       <c r="B80" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C80" t="s">
         <v>85</v>
       </c>
       <c r="D80" s="10" t="s">
@@ -1769,7 +1769,7 @@
       <c r="B103" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="C103" t="s">
         <v>87</v>
       </c>
       <c r="D103" s="10" t="s">
@@ -1957,7 +1957,7 @@
       <c r="B127" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C127" s="2" t="s">
+      <c r="C127" t="s">
         <v>87</v>
       </c>
       <c r="D127" s="10" t="s">
@@ -2321,7 +2321,7 @@
       <c r="B175" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C175" s="2" t="s">
+      <c r="C175" t="s">
         <v>7</v>
       </c>
       <c r="D175" s="10" t="s">
@@ -2461,19 +2461,9 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C175" r:id="rId1"/>
-    <hyperlink ref="C41" r:id="rId2"/>
-    <hyperlink ref="C46" r:id="rId3"/>
-    <hyperlink ref="C75" r:id="rId4"/>
-    <hyperlink ref="C80" r:id="rId5"/>
-    <hyperlink ref="C11" r:id="rId6"/>
-    <hyperlink ref="C103" r:id="rId7"/>
-    <hyperlink ref="C127" r:id="rId8"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <legacyDrawing r:id="rId9"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Beaconit.xlsx
+++ b/Beaconit.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8640" yWindow="2060" windowWidth="19960" windowHeight="14580" tabRatio="500"/>
+    <workbookView xWindow="39880" yWindow="-600" windowWidth="23140" windowHeight="16120" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Livi" sheetId="1" r:id="rId1"/>
     <sheet name="HSL" sheetId="2" r:id="rId2"/>
     <sheet name="VR" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="150001" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -188,34 +188,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="C175" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t>Microsoft Office User:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">
-Mikä Url laitetaan?</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="107">
   <si>
     <t>Beaconit</t>
   </si>
@@ -238,9 +216,6 @@
     <t>Url</t>
   </si>
   <si>
-    <t>https://goo.gl/pJnBYZ</t>
-  </si>
-  <si>
     <t>2000</t>
   </si>
   <si>
@@ -286,9 +261,6 @@
     <t>Livi 0044 iBKS+ 1</t>
   </si>
   <si>
-    <t>https://www.reittiopas.fi/lahellasi</t>
-  </si>
-  <si>
     <t>Arvo tarkistettava/päivitettävä</t>
   </si>
   <si>
@@ -355,9 +327,6 @@
     <t>Livi 0044 iBKS+ 7</t>
   </si>
   <si>
-    <t>Welcome</t>
-  </si>
-  <si>
     <t>Sijoittelu</t>
   </si>
   <si>
@@ -511,9 +480,6 @@
     <t>000010000101010</t>
   </si>
   <si>
-    <t>0000100000110000</t>
-  </si>
-  <si>
     <t>0010000000101001</t>
   </si>
   <si>
@@ -532,10 +498,22 @@
     <t>2029</t>
   </si>
   <si>
-    <t>830</t>
-  </si>
-  <si>
     <t>42A</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>https://goo.gl/MmRvsh</t>
+  </si>
+  <si>
+    <t>https://www.reittiopas.fi/terminaalit/HSL:2000202</t>
+  </si>
+  <si>
+    <t>0010000000101010</t>
+  </si>
+  <si>
+    <t>202A</t>
   </si>
 </sst>
 </file>
@@ -942,8 +920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I195"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C175" sqref="C175"/>
+    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
+      <selection activeCell="F165" sqref="F165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -965,65 +943,65 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="E4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="32" x14ac:dyDescent="0.2">
@@ -1031,35 +1009,35 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D13" s="11"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="D14" s="11"/>
     </row>
@@ -1068,40 +1046,40 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D16" s="10"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>27</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
@@ -1125,42 +1103,39 @@
         <v>4</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>24</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.2">
@@ -1184,85 +1159,82 @@
         <v>4</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B33" s="7"/>
       <c r="C33" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E34" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B36" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="32" x14ac:dyDescent="0.2">
@@ -1270,42 +1242,42 @@
         <v>6</v>
       </c>
       <c r="C41" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="32" x14ac:dyDescent="0.2">
@@ -1313,27 +1285,27 @@
         <v>6</v>
       </c>
       <c r="C46" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D47" s="11"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="D48" s="11"/>
     </row>
@@ -1342,40 +1314,40 @@
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B50" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D50" s="10"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B53" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.2">
@@ -1399,54 +1371,51 @@
         <v>4</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B59" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B60" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B61" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B62" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.2">
@@ -1470,76 +1439,70 @@
         <v>4</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D65" s="8" t="s">
-        <v>24</v>
+        <v>98</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B67" s="7"/>
       <c r="C67" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B68" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D68" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E68" t="s">
         <v>46</v>
-      </c>
-      <c r="E68" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B70" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B71" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B72" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B73" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B74" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="32" x14ac:dyDescent="0.2">
@@ -1547,42 +1510,42 @@
         <v>6</v>
       </c>
       <c r="C75" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B76" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B77" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B78" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="32" x14ac:dyDescent="0.2">
@@ -1590,27 +1553,27 @@
         <v>6</v>
       </c>
       <c r="C80" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B81" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D81" s="11"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B82" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="D82" s="11"/>
     </row>
@@ -1619,40 +1582,40 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B84" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D84" s="10"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B85" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B86" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B87" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>27</v>
+        <v>102</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B88" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
@@ -1676,93 +1639,90 @@
         <v>4</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D91" s="8" t="s">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B93" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B95" s="7"/>
       <c r="C95" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B96" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E96" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B98" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B99" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C99" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B100" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B101" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B102" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="103" spans="2:4" ht="32" x14ac:dyDescent="0.2">
@@ -1770,35 +1730,35 @@
         <v>6</v>
       </c>
       <c r="C103" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B104" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B105" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D105" s="11"/>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B106" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="D106" s="11"/>
     </row>
@@ -1807,40 +1767,40 @@
     </row>
     <row r="108" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B108" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D108" s="10"/>
     </row>
     <row r="109" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B109" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="110" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B110" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="111" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B111" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>27</v>
+        <v>102</v>
       </c>
     </row>
     <row r="112" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B112" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
@@ -1864,93 +1824,90 @@
         <v>4</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D115" s="8" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I115" s="14" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B117" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B119" s="7"/>
       <c r="C119" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B120" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E120" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B122" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B123" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C123" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B124" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B125" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B126" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="32" x14ac:dyDescent="0.2">
@@ -1958,35 +1915,35 @@
         <v>6</v>
       </c>
       <c r="C127" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B128" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B129" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D129" s="11"/>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B130" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C130" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="D130" s="11"/>
     </row>
@@ -1995,40 +1952,40 @@
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B132" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D132" s="10"/>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B133" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B134" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B135" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B136" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.2">
@@ -2052,84 +2009,84 @@
         <v>4</v>
       </c>
       <c r="C139" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D139" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F139" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D139" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F139" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="G139" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B141" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B143" s="7"/>
       <c r="C143" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D143" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B144" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E144" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="146" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B146" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="147" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B147" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="148" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B148" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="149" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B149" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="150" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B150" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="151" spans="2:4" x14ac:dyDescent="0.2">
@@ -2141,27 +2098,27 @@
     </row>
     <row r="152" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B152" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="153" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B153" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D153" s="11"/>
     </row>
     <row r="154" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B154" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C154" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C154" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="D154" s="11"/>
     </row>
@@ -2170,40 +2127,40 @@
     </row>
     <row r="156" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B156" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D156" s="10"/>
     </row>
     <row r="157" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B157" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="158" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B158" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="159" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B159" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="160" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B160" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.2">
@@ -2227,94 +2184,94 @@
         <v>4</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D163" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I163" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B165" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B167" s="7"/>
       <c r="C167" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D167" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B168" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D168" s="12"/>
       <c r="E168" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B170" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B171" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C171" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="C171" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B172" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B173" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B174" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="175" spans="1:9" ht="32" x14ac:dyDescent="0.2">
@@ -2322,35 +2279,35 @@
         <v>6</v>
       </c>
       <c r="C175" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="D175" s="10" t="s">
-        <v>23</v>
+        <v>104</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B176" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="177" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B177" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D177" s="11"/>
     </row>
     <row r="178" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B178" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C178" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="D178" s="11"/>
     </row>
@@ -2359,31 +2316,31 @@
     </row>
     <row r="180" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B180" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D180" s="10"/>
     </row>
     <row r="181" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B181" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="182" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B182" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="183" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B183" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="184" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B184" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="185" spans="2:4" x14ac:dyDescent="0.2">
@@ -2403,34 +2360,34 @@
     </row>
     <row r="189" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B189" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="190" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B190" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C190" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="C190" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="191" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B191" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="192" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B192" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="193" spans="2:4" x14ac:dyDescent="0.2">
@@ -2457,7 +2414,7 @@
         <v>5</v>
       </c>
       <c r="D195" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -2482,7 +2439,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="64" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
@@ -2490,12 +2447,12 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2518,7 +2475,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="64" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
@@ -2526,7 +2483,7 @@
     </row>
     <row r="3" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
@@ -2534,7 +2491,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
@@ -2542,22 +2499,22 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
@@ -2565,22 +2522,22 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
@@ -2588,22 +2545,22 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
@@ -2611,22 +2568,22 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
@@ -2634,22 +2591,22 @@
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
@@ -2657,12 +2614,12 @@
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/Beaconit.xlsx
+++ b/Beaconit.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miko.thusberg/OneDrive - Gofore Oy/Cases/Livi/Beaconit/Livi pilotti/Laitteet/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miko.thusberg/OneDrive - Gofore Oy/Cases/Livi/Beaconit/Livi pilotti/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="39880" yWindow="-600" windowWidth="23140" windowHeight="16120" tabRatio="500"/>
+    <workbookView xWindow="5660" yWindow="460" windowWidth="23140" windowHeight="16120" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Livi" sheetId="1" r:id="rId1"/>
@@ -193,7 +193,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="107">
   <si>
     <t>Beaconit</t>
   </si>
@@ -261,9 +261,6 @@
     <t>Livi 0044 iBKS+ 1</t>
   </si>
   <si>
-    <t>Arvo tarkistettava/päivitettävä</t>
-  </si>
-  <si>
     <t>+4</t>
   </si>
   <si>
@@ -498,9 +495,6 @@
     <t>2029</t>
   </si>
   <si>
-    <t>42A</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -514,6 +508,12 @@
   </si>
   <si>
     <t>202A</t>
+  </si>
+  <si>
+    <t>042A</t>
+  </si>
+  <si>
+    <t>Koodi puuttuu</t>
   </si>
 </sst>
 </file>
@@ -920,8 +920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
-      <selection activeCell="F165" sqref="F165"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D139" sqref="D139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -947,13 +947,13 @@
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -964,7 +964,7 @@
         <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -982,7 +982,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>7</v>
@@ -990,18 +990,18 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="32" x14ac:dyDescent="0.2">
@@ -1009,10 +1009,10 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -1060,26 +1060,26 @@
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
@@ -1103,7 +1103,7 @@
         <v>4</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.2">
@@ -1116,26 +1116,26 @@
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.2">
@@ -1159,19 +1159,19 @@
         <v>4</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G31" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="I31" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -1180,13 +1180,13 @@
       </c>
       <c r="B33" s="7"/>
       <c r="C33" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D33" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -1194,10 +1194,10 @@
         <v>20</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -1215,7 +1215,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>7</v>
@@ -1223,18 +1223,18 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="32" x14ac:dyDescent="0.2">
@@ -1242,10 +1242,10 @@
         <v>6</v>
       </c>
       <c r="C41" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -1258,7 +1258,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>7</v>
@@ -1266,18 +1266,18 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="32" x14ac:dyDescent="0.2">
@@ -1285,10 +1285,10 @@
         <v>6</v>
       </c>
       <c r="C46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -1328,26 +1328,26 @@
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B53" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.2">
@@ -1371,19 +1371,19 @@
         <v>4</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.2">
@@ -1396,26 +1396,26 @@
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B60" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B61" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B62" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.2">
@@ -1439,22 +1439,22 @@
         <v>4</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B67" s="7"/>
       <c r="C67" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D67" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -1462,10 +1462,10 @@
         <v>20</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E68" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -1483,7 +1483,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B72" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>7</v>
@@ -1491,18 +1491,18 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B73" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B74" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="32" x14ac:dyDescent="0.2">
@@ -1510,10 +1510,10 @@
         <v>6</v>
       </c>
       <c r="C75" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -1526,7 +1526,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B77" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>7</v>
@@ -1534,18 +1534,18 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B78" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="32" x14ac:dyDescent="0.2">
@@ -1553,10 +1553,10 @@
         <v>6</v>
       </c>
       <c r="C80" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
@@ -1596,26 +1596,26 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B86" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B87" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B88" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
@@ -1639,19 +1639,19 @@
         <v>4</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H91" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I91" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="I91" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
@@ -1664,17 +1664,17 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B95" s="7"/>
       <c r="C95" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D95" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
@@ -1682,10 +1682,10 @@
         <v>20</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E96" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.2">
@@ -1703,7 +1703,7 @@
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B100" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>7</v>
@@ -1711,18 +1711,18 @@
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B101" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B102" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C102" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="103" spans="2:4" ht="32" x14ac:dyDescent="0.2">
@@ -1730,10 +1730,10 @@
         <v>6</v>
       </c>
       <c r="C103" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.2">
@@ -1781,26 +1781,26 @@
     </row>
     <row r="110" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B110" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="111" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B111" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="112" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B112" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
@@ -1824,19 +1824,19 @@
         <v>4</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H115" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I115" s="14" t="s">
         <v>87</v>
-      </c>
-      <c r="I115" s="14" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
@@ -1849,17 +1849,17 @@
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B119" s="7"/>
       <c r="C119" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D119" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.2">
@@ -1867,10 +1867,10 @@
         <v>20</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E120" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.2">
@@ -1888,7 +1888,7 @@
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B124" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>7</v>
@@ -1896,18 +1896,18 @@
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B125" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B126" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C126" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="32" x14ac:dyDescent="0.2">
@@ -1915,10 +1915,10 @@
         <v>6</v>
       </c>
       <c r="C127" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.2">
@@ -1966,26 +1966,26 @@
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B134" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B135" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B136" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.2">
@@ -2009,22 +2009,19 @@
         <v>4</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D139" s="8" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G139" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I139" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="H139" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I139" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.2">
@@ -2037,17 +2034,17 @@
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B143" s="7"/>
       <c r="C143" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D143" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.2">
@@ -2055,10 +2052,10 @@
         <v>20</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E144" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="146" spans="2:4" x14ac:dyDescent="0.2">
@@ -2076,17 +2073,17 @@
     </row>
     <row r="148" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B148" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="149" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B149" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="150" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B150" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="151" spans="2:4" x14ac:dyDescent="0.2">
@@ -2141,26 +2138,26 @@
     </row>
     <row r="158" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B158" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="159" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B159" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="160" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B160" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.2">
@@ -2184,22 +2181,19 @@
         <v>4</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D163" s="8" t="s">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G163" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H163" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H163" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="I163" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.2">
@@ -2212,17 +2206,17 @@
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B167" s="7"/>
       <c r="C167" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D167" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.2">
@@ -2230,11 +2224,11 @@
         <v>20</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D168" s="12"/>
       <c r="E168" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.2">
@@ -2252,7 +2246,7 @@
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B172" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>7</v>
@@ -2260,18 +2254,18 @@
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B173" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B174" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C174" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="175" spans="1:9" ht="32" x14ac:dyDescent="0.2">
@@ -2279,10 +2273,10 @@
         <v>6</v>
       </c>
       <c r="C175" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D175" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.2">
@@ -2330,17 +2324,17 @@
     </row>
     <row r="182" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B182" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="183" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B183" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="184" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B184" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="185" spans="2:4" x14ac:dyDescent="0.2">
@@ -2368,26 +2362,26 @@
     </row>
     <row r="190" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B190" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="191" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B191" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="192" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B192" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="193" spans="2:4" x14ac:dyDescent="0.2">
@@ -2414,7 +2408,7 @@
         <v>5</v>
       </c>
       <c r="D195" s="8" t="s">
-        <v>22</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2439,7 +2433,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="64" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
@@ -2447,12 +2441,12 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2475,7 +2469,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="64" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
@@ -2483,7 +2477,7 @@
     </row>
     <row r="3" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
@@ -2491,7 +2485,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
@@ -2499,22 +2493,22 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
@@ -2522,22 +2516,22 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
@@ -2545,22 +2539,22 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
@@ -2568,22 +2562,22 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
@@ -2591,22 +2585,22 @@
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
@@ -2614,12 +2608,12 @@
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/Beaconit.xlsx
+++ b/Beaconit.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miko.thusberg/OneDrive - Gofore Oy/Cases/Livi/Beaconit/Livi pilotti/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smartpirtti/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5660" yWindow="460" windowWidth="23140" windowHeight="16120" tabRatio="500"/>
+    <workbookView xWindow="3380" yWindow="9940" windowWidth="20420" windowHeight="16120" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Livi" sheetId="1" r:id="rId1"/>
@@ -193,7 +193,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="109">
   <si>
     <t>Beaconit</t>
   </si>
@@ -514,6 +514,12 @@
   </si>
   <si>
     <t>Koodi puuttuu</t>
+  </si>
+  <si>
+    <t>FF44</t>
+  </si>
+  <si>
+    <t>Dec</t>
   </si>
 </sst>
 </file>
@@ -599,14 +605,38 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -634,13 +664,40 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="29">
+    <cellStyle name="Avattu hyperlinkki" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="1" builtinId="8"/>
+    <cellStyle name="Norm." xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -918,10 +975,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I195"/>
+  <dimension ref="A1:J195"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D139" sqref="D139"/>
+    <sheetView topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -929,19 +986,20 @@
     <col min="1" max="1" width="12.33203125" customWidth="1"/>
     <col min="2" max="2" width="21" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.6640625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="30.6640625" customWidth="1"/>
-    <col min="6" max="6" width="21.1640625" style="1" customWidth="1"/>
-    <col min="7" max="8" width="9.1640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="15" customWidth="1"/>
+    <col min="5" max="5" width="28.6640625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="30.6640625" customWidth="1"/>
+    <col min="7" max="7" width="21.1640625" style="1" customWidth="1"/>
+    <col min="8" max="9" width="9.1640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -949,30 +1007,31 @@
       <c r="C3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="16"/>
+      <c r="E3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
@@ -980,7 +1039,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>28</v>
       </c>
@@ -988,7 +1047,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
@@ -996,7 +1055,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>26</v>
       </c>
@@ -1004,18 +1063,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="s">
         <v>83</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="E11" s="10" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -1023,34 +1082,34 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="11"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E13" s="11"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="11"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D15" s="10"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E14" s="11"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E15" s="10"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="10"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E16" s="10"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
@@ -1058,7 +1117,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>28</v>
       </c>
@@ -1066,7 +1125,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>25</v>
       </c>
@@ -1074,7 +1133,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>26</v>
       </c>
@@ -1082,7 +1141,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
         <v>1</v>
       </c>
@@ -1090,23 +1149,31 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D22" s="15">
+        <f>HEX2DEC(C22)</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D23" s="15">
+        <f>HEX2DEC(C23)</f>
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>14</v>
       </c>
@@ -1114,7 +1181,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>28</v>
       </c>
@@ -1122,7 +1189,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>25</v>
       </c>
@@ -1130,7 +1197,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>26</v>
       </c>
@@ -1138,7 +1205,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>1</v>
       </c>
@@ -1146,35 +1213,43 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+      <c r="D30" s="15">
+        <f>HEX2DEC(C30)</f>
+        <v>65348</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="D31" s="15">
+        <f>HEX2DEC(C31)</f>
+        <v>2089</v>
+      </c>
+      <c r="G31" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="H31" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="I31" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="J31" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>9</v>
       </c>
@@ -1182,30 +1257,33 @@
       <c r="C33" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="E33" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="F33" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B36" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>11</v>
       </c>
@@ -1213,7 +1291,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
         <v>28</v>
       </c>
@@ -1221,7 +1299,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
         <v>25</v>
       </c>
@@ -1229,7 +1307,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
         <v>26</v>
       </c>
@@ -1237,18 +1315,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C41" t="s">
         <v>79</v>
       </c>
-      <c r="D41" s="10" t="s">
+      <c r="E41" s="10" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
         <v>14</v>
       </c>
@@ -1256,7 +1334,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
         <v>28</v>
       </c>
@@ -1264,7 +1342,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
         <v>25</v>
       </c>
@@ -1272,7 +1350,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
         <v>26</v>
       </c>
@@ -1280,45 +1358,45 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C46" t="s">
         <v>81</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="E46" s="10" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D47" s="11"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E47" s="11"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D48" s="11"/>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D49" s="10"/>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E48" s="11"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E49" s="10"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B50" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D50" s="10"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E50" s="10"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
         <v>11</v>
       </c>
@@ -1326,7 +1404,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
         <v>28</v>
       </c>
@@ -1334,7 +1412,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B53" s="1" t="s">
         <v>25</v>
       </c>
@@ -1342,7 +1420,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
         <v>26</v>
       </c>
@@ -1350,7 +1428,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
         <v>1</v>
       </c>
@@ -1358,35 +1436,43 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D56" s="15">
+        <f>HEX2DEC(C56)</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B57" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F57" s="1" t="s">
+      <c r="D57" s="15">
+        <f>HEX2DEC(C57)</f>
+        <v>4138</v>
+      </c>
+      <c r="G57" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G57" s="1" t="s">
+      <c r="H57" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H57" s="1" t="s">
+      <c r="I57" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I57" s="1" t="s">
+      <c r="J57" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B59" s="1" t="s">
         <v>14</v>
       </c>
@@ -1394,7 +1480,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B60" s="1" t="s">
         <v>28</v>
       </c>
@@ -1402,7 +1488,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B61" s="1" t="s">
         <v>25</v>
       </c>
@@ -1410,7 +1496,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B62" s="1" t="s">
         <v>26</v>
       </c>
@@ -1418,7 +1504,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B63" s="1" t="s">
         <v>1</v>
       </c>
@@ -1426,23 +1512,31 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B64" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+      <c r="D64" s="15">
+        <f>HEX2DEC(C64)</f>
+        <v>65348</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B65" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D65" s="15">
+        <f>HEX2DEC(C65)</f>
+        <v>4138</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
         <v>33</v>
       </c>
@@ -1450,30 +1544,31 @@
       <c r="C67" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D67" s="9" t="s">
+      <c r="D67" s="16"/>
+      <c r="E67" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E67" s="4" t="s">
+      <c r="F67" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B68" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E68" t="s">
+      <c r="F68" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B70" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B71" s="1" t="s">
         <v>11</v>
       </c>
@@ -1481,7 +1576,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B72" s="1" t="s">
         <v>28</v>
       </c>
@@ -1489,7 +1584,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B73" s="1" t="s">
         <v>25</v>
       </c>
@@ -1497,7 +1592,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B74" s="1" t="s">
         <v>26</v>
       </c>
@@ -1505,18 +1600,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B75" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C75" t="s">
         <v>79</v>
       </c>
-      <c r="D75" s="10" t="s">
+      <c r="E75" s="10" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B76" s="1" t="s">
         <v>14</v>
       </c>
@@ -1524,7 +1619,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B77" s="1" t="s">
         <v>28</v>
       </c>
@@ -1532,7 +1627,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B78" s="1" t="s">
         <v>25</v>
       </c>
@@ -1540,7 +1635,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>26</v>
       </c>
@@ -1548,45 +1643,45 @@
         <v>27</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B80" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C80" t="s">
         <v>81</v>
       </c>
-      <c r="D80" s="10" t="s">
+      <c r="E80" s="10" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B81" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D81" s="11"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E81" s="11"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B82" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D82" s="11"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D83" s="10"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E82" s="11"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E83" s="10"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B84" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D84" s="10"/>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E84" s="10"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B85" s="1" t="s">
         <v>11</v>
       </c>
@@ -1594,7 +1689,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B86" s="1" t="s">
         <v>28</v>
       </c>
@@ -1602,7 +1697,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B87" s="1" t="s">
         <v>25</v>
       </c>
@@ -1610,7 +1705,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B88" s="1" t="s">
         <v>26</v>
       </c>
@@ -1618,7 +1713,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B89" s="1" t="s">
         <v>1</v>
       </c>
@@ -1626,35 +1721,43 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B90" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D90" s="15">
+        <f>HEX2DEC(C90)</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B91" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="F91" s="1" t="s">
+      <c r="D91" s="15">
+        <f>HEX2DEC(C91)</f>
+        <v>4137</v>
+      </c>
+      <c r="G91" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G91" s="1" t="s">
+      <c r="H91" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H91" s="1" t="s">
+      <c r="I91" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I91" s="1" t="s">
+      <c r="J91" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B93" s="1" t="s">
         <v>14</v>
       </c>
@@ -1662,7 +1765,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="s">
         <v>35</v>
       </c>
@@ -1670,30 +1773,31 @@
       <c r="C95" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D95" s="9" t="s">
+      <c r="D95" s="16"/>
+      <c r="E95" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E95" s="4" t="s">
+      <c r="F95" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B96" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E96" t="s">
+      <c r="F96" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B98" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B99" s="1" t="s">
         <v>11</v>
       </c>
@@ -1701,7 +1805,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B100" s="1" t="s">
         <v>28</v>
       </c>
@@ -1709,7 +1813,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B101" s="1" t="s">
         <v>25</v>
       </c>
@@ -1717,7 +1821,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B102" s="1" t="s">
         <v>26</v>
       </c>
@@ -1725,18 +1829,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="103" spans="2:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:5" ht="32" x14ac:dyDescent="0.2">
       <c r="B103" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C103" t="s">
         <v>83</v>
       </c>
-      <c r="D103" s="10" t="s">
+      <c r="E103" s="10" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B104" s="1" t="s">
         <v>14</v>
       </c>
@@ -1744,34 +1848,34 @@
         <v>17</v>
       </c>
     </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B105" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D105" s="11"/>
-    </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E105" s="11"/>
+    </row>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B106" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D106" s="11"/>
-    </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D107" s="10"/>
-    </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E106" s="11"/>
+    </row>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E107" s="10"/>
+    </row>
+    <row r="108" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B108" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D108" s="10"/>
-    </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E108" s="10"/>
+    </row>
+    <row r="109" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B109" s="1" t="s">
         <v>11</v>
       </c>
@@ -1779,7 +1883,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B110" s="1" t="s">
         <v>28</v>
       </c>
@@ -1787,7 +1891,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B111" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,7 +1899,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B112" s="1" t="s">
         <v>26</v>
       </c>
@@ -1803,7 +1907,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B113" s="1" t="s">
         <v>1</v>
       </c>
@@ -1811,35 +1915,43 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B114" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D114" s="15">
+        <f>HEX2DEC(C114)</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B115" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F115" s="1" t="s">
+      <c r="D115" s="15">
+        <f>HEX2DEC(C115)</f>
+        <v>8233</v>
+      </c>
+      <c r="G115" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="G115" s="1" t="s">
+      <c r="H115" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H115" s="1" t="s">
+      <c r="I115" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I115" s="14" t="s">
+      <c r="J115" s="14" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B117" s="1" t="s">
         <v>14</v>
       </c>
@@ -1847,7 +1959,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" s="6" t="s">
         <v>37</v>
       </c>
@@ -1855,30 +1967,31 @@
       <c r="C119" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D119" s="9" t="s">
+      <c r="D119" s="16"/>
+      <c r="E119" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E119" s="4" t="s">
+      <c r="F119" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B120" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E120" t="s">
+      <c r="F120" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B122" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B123" s="1" t="s">
         <v>11</v>
       </c>
@@ -1886,7 +1999,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B124" s="1" t="s">
         <v>28</v>
       </c>
@@ -1894,7 +2007,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B125" s="1" t="s">
         <v>25</v>
       </c>
@@ -1902,7 +2015,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B126" s="1" t="s">
         <v>26</v>
       </c>
@@ -1910,18 +2023,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="B127" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C127" t="s">
         <v>83</v>
       </c>
-      <c r="D127" s="10" t="s">
+      <c r="E127" s="10" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B128" s="1" t="s">
         <v>14</v>
       </c>
@@ -1929,34 +2042,34 @@
         <v>17</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B129" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D129" s="11"/>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E129" s="11"/>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B130" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D130" s="11"/>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D131" s="10"/>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E130" s="11"/>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E131" s="10"/>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B132" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D132" s="10"/>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E132" s="10"/>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B133" s="1" t="s">
         <v>11</v>
       </c>
@@ -1964,7 +2077,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B134" s="1" t="s">
         <v>28</v>
       </c>
@@ -1972,7 +2085,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B135" s="1" t="s">
         <v>25</v>
       </c>
@@ -1980,7 +2093,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B136" s="1" t="s">
         <v>26</v>
       </c>
@@ -1988,7 +2101,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B137" s="1" t="s">
         <v>1</v>
       </c>
@@ -1996,35 +2109,43 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B138" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D138" s="15">
+        <f>HEX2DEC(C138)</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B139" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="F139" s="1" t="s">
+      <c r="D139" s="15">
+        <f>HEX2DEC(C139)</f>
+        <v>8234</v>
+      </c>
+      <c r="G139" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G139" s="1" t="s">
+      <c r="H139" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H139" s="1" t="s">
+      <c r="I139" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I139" s="1" t="s">
+      <c r="J139" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B141" s="1" t="s">
         <v>14</v>
       </c>
@@ -2032,7 +2153,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" s="6" t="s">
         <v>39</v>
       </c>
@@ -2040,30 +2161,31 @@
       <c r="C143" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D143" s="9" t="s">
+      <c r="D143" s="16"/>
+      <c r="E143" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E143" s="4" t="s">
+      <c r="F143" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B144" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E144" t="s">
+      <c r="F144" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="146" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B146" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="147" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B147" s="1" t="s">
         <v>11</v>
       </c>
@@ -2071,29 +2193,30 @@
         <v>17</v>
       </c>
     </row>
-    <row r="148" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B148" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="149" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B149" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="150" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B150" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="151" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B151" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C151" s="2"/>
-      <c r="D151" s="10"/>
-    </row>
-    <row r="152" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D151" s="17"/>
+      <c r="E151" s="10"/>
+    </row>
+    <row r="152" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B152" s="1" t="s">
         <v>14</v>
       </c>
@@ -2101,34 +2224,34 @@
         <v>17</v>
       </c>
     </row>
-    <row r="153" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B153" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D153" s="11"/>
-    </row>
-    <row r="154" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E153" s="11"/>
+    </row>
+    <row r="154" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B154" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D154" s="11"/>
-    </row>
-    <row r="155" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D155" s="10"/>
-    </row>
-    <row r="156" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E154" s="11"/>
+    </row>
+    <row r="155" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E155" s="10"/>
+    </row>
+    <row r="156" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B156" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D156" s="10"/>
-    </row>
-    <row r="157" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E156" s="10"/>
+    </row>
+    <row r="157" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B157" s="1" t="s">
         <v>11</v>
       </c>
@@ -2136,7 +2259,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="158" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B158" s="1" t="s">
         <v>28</v>
       </c>
@@ -2144,7 +2267,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="159" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B159" s="1" t="s">
         <v>25</v>
       </c>
@@ -2152,7 +2275,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="160" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B160" s="1" t="s">
         <v>26</v>
       </c>
@@ -2160,7 +2283,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B161" s="1" t="s">
         <v>1</v>
       </c>
@@ -2168,35 +2291,43 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B162" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D162" s="15">
+        <f>HEX2DEC(C162)</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B163" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F163" s="1" t="s">
+      <c r="D163" s="15">
+        <f>HEX2DEC(C163)</f>
+        <v>1066</v>
+      </c>
+      <c r="G163" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="G163" s="1" t="s">
+      <c r="H163" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H163" s="1" t="s">
+      <c r="I163" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I163" s="1" t="s">
+      <c r="J163" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B165" s="1" t="s">
         <v>14</v>
       </c>
@@ -2204,7 +2335,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A167" s="6" t="s">
         <v>41</v>
       </c>
@@ -2212,31 +2343,32 @@
       <c r="C167" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D167" s="9" t="s">
+      <c r="D167" s="16"/>
+      <c r="E167" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E167" s="4" t="s">
+      <c r="F167" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B168" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D168" s="12"/>
-      <c r="E168" t="s">
+      <c r="E168" s="12"/>
+      <c r="F168" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B170" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B171" s="1" t="s">
         <v>11</v>
       </c>
@@ -2244,7 +2376,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B172" s="1" t="s">
         <v>28</v>
       </c>
@@ -2252,7 +2384,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B173" s="1" t="s">
         <v>25</v>
       </c>
@@ -2260,7 +2392,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B174" s="1" t="s">
         <v>26</v>
       </c>
@@ -2268,18 +2400,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="175" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="B175" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C175" t="s">
         <v>101</v>
       </c>
-      <c r="D175" s="10" t="s">
+      <c r="E175" s="10" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B176" s="1" t="s">
         <v>14</v>
       </c>
@@ -2287,34 +2419,34 @@
         <v>17</v>
       </c>
     </row>
-    <row r="177" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B177" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D177" s="11"/>
-    </row>
-    <row r="178" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E177" s="11"/>
+    </row>
+    <row r="178" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B178" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D178" s="11"/>
-    </row>
-    <row r="179" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D179" s="10"/>
-    </row>
-    <row r="180" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E178" s="11"/>
+    </row>
+    <row r="179" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E179" s="10"/>
+    </row>
+    <row r="180" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B180" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D180" s="10"/>
-    </row>
-    <row r="181" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E180" s="10"/>
+    </row>
+    <row r="181" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B181" s="1" t="s">
         <v>11</v>
       </c>
@@ -2322,37 +2454,37 @@
         <v>17</v>
       </c>
     </row>
-    <row r="182" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B182" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="183" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B183" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="184" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B184" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="185" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B185" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B186" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B187" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="189" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B189" s="1" t="s">
         <v>14</v>
       </c>
@@ -2360,7 +2492,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="190" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B190" s="1" t="s">
         <v>28</v>
       </c>
@@ -2368,7 +2500,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="191" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B191" s="1" t="s">
         <v>25</v>
       </c>
@@ -2376,7 +2508,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="192" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B192" s="1" t="s">
         <v>26</v>
       </c>
@@ -2384,7 +2516,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="193" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B193" s="1" t="s">
         <v>1</v>
       </c>
@@ -2392,22 +2524,30 @@
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B194" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="195" spans="2:4" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+      <c r="D194" s="15">
+        <f>HEX2DEC(C194)</f>
+        <v>65348</v>
+      </c>
+    </row>
+    <row r="195" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B195" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D195" s="8" t="s">
+      <c r="D195" s="15">
+        <f>HEX2DEC(C195)</f>
+        <v>68</v>
+      </c>
+      <c r="E195" s="8" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2422,9 +2562,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2458,7 +2596,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A33"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
